--- a/materialProperties.xlsx
+++ b/materialProperties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\OneDrive\Documents\MATLAB\4050\Composite Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\OneDrive\Documents\GitHub\Composites-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CF3BA0F-D33B-4DCE-A953-8573A5980102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6844E73A-6329-4B1E-A179-DE98ED17E8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="510" windowWidth="23475" windowHeight="14970"/>
+    <workbookView xWindow="3855" yWindow="510" windowWidth="23475" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="materialProperties" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -958,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,6 +1280,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/materialProperties.xlsx
+++ b/materialProperties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\OneDrive\Documents\GitHub\Composites-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6844E73A-6329-4B1E-A179-DE98ED17E8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AC8FAF-A6C3-44C8-833D-D209EDEE4227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="510" windowWidth="23475" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,7 +962,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,9 +1281,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D6" s="1">
-        <v>555</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/materialProperties.xlsx
+++ b/materialProperties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex-\OneDrive\Documents\GitHub\Composites-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AC8FAF-A6C3-44C8-833D-D209EDEE4227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFEC956-3917-48EB-A20F-763AECFD154B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="510" windowWidth="23475" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>Vf</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -959,195 +962,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.45</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>5600000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1200000</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>600000</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.26</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.31</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>4.7779999999999998E-6</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1.2278E-5</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>0.6</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>154030</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>88470</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>4496</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>17120</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>10440</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>2.06</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>7.99</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>29590000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>2683000</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>811000</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>3.3890000000000001E-6</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>1.683E-5</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>0.6</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>182750</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>362600</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>8847000</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>29300</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>9718</v>
-      </c>
-      <c r="R3" t="s">
-        <v>25</v>
       </c>
       <c r="S3" t="s">
         <v>25</v>
@@ -1155,133 +1164,142 @@
       <c r="T3" t="s">
         <v>25</v>
       </c>
+      <c r="U3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>26250000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1490000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>1040000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>1.11E-8</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>0.6</v>
-      </c>
-      <c r="M4" s="1">
-        <v>217560</v>
       </c>
       <c r="N4" s="1">
         <v>217560</v>
       </c>
       <c r="O4" s="1">
+        <v>217560</v>
+      </c>
+      <c r="P4" s="1">
         <v>5802</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>35680</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>9863</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>1.26</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>2.86</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>11000000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>800000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>300000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>-1.1000000000000001E-6</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>0.01</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>0.2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>200000</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>84000</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>5000</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>20000</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>6400</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>21800</v>
-      </c>
-      <c r="S5" t="s">
-        <v>25</v>
       </c>
       <c r="T5" t="s">
         <v>25</v>
       </c>
+      <c r="U5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
